--- a/outputs-HGR-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Ruminococcaceae.xlsx
@@ -23092,109 +23092,109 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6.482279371117584e-07</v>
+        <v>8.532951142392875e-07</v>
       </c>
       <c r="C194" t="n">
-        <v>2.020291689221974e-11</v>
+        <v>4.343122287722572e-11</v>
       </c>
       <c r="D194" t="n">
-        <v>1.1976590111378e-05</v>
+        <v>7.501995746322537e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.870451723846936e-06</v>
+        <v>3.596304594293407e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>0.000132420224902996</v>
+        <v>0.0001002614300064392</v>
       </c>
       <c r="G194" t="n">
-        <v>2.220182618579387e-14</v>
+        <v>1.42269421979648e-13</v>
       </c>
       <c r="H194" t="n">
-        <v>0.0001308485284703414</v>
+        <v>6.761055340998305e-05</v>
       </c>
       <c r="I194" t="n">
-        <v>2.220182618579387e-14</v>
+        <v>2.22018884840265e-14</v>
       </c>
       <c r="J194" t="n">
-        <v>5.335491719734501e-05</v>
+        <v>3.000523469397303e-05</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0005103528747155208</v>
+        <v>0.0003404709694874236</v>
       </c>
       <c r="L194" t="n">
-        <v>3.986694447131249e-07</v>
+        <v>8.096845575549865e-07</v>
       </c>
       <c r="M194" t="n">
-        <v>2.594782777615638e-12</v>
+        <v>1.350622290072174e-11</v>
       </c>
       <c r="N194" t="n">
-        <v>2.220182618579387e-14</v>
+        <v>2.22018884840265e-14</v>
       </c>
       <c r="O194" t="n">
-        <v>3.721307136281122e-10</v>
+        <v>1.599405969487047e-09</v>
       </c>
       <c r="P194" t="n">
-        <v>5.34925034535408e-11</v>
+        <v>8.480221956046033e-12</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.9958222351736816</v>
+        <v>0.9956509926777982</v>
       </c>
       <c r="R194" t="n">
-        <v>0.002852206355084931</v>
+        <v>0.002558909026954844</v>
       </c>
       <c r="S194" t="n">
-        <v>9.245115021180989e-06</v>
+        <v>3.949550235367336e-06</v>
       </c>
       <c r="T194" t="n">
-        <v>2.494968139090747e-05</v>
+        <v>1.688219692318842e-05</v>
       </c>
       <c r="U194" t="n">
-        <v>2.220182618579387e-14</v>
+        <v>2.22018884840265e-14</v>
       </c>
       <c r="V194" t="n">
-        <v>5.723174658847671e-06</v>
+        <v>3.353728175529703e-06</v>
       </c>
       <c r="W194" t="n">
-        <v>3.436052421269024e-09</v>
+        <v>1.829983396367018e-09</v>
       </c>
       <c r="X194" t="n">
-        <v>8.969773476862894e-06</v>
+        <v>1.47880394690993e-05</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.0001454355775848968</v>
+        <v>0.0008444796853672799</v>
       </c>
       <c r="Z194" t="n">
-        <v>3.679038999278356e-09</v>
+        <v>6.682169806787423e-09</v>
       </c>
       <c r="AA194" t="n">
-        <v>2.220182618579387e-14</v>
+        <v>2.22018884840265e-14</v>
       </c>
       <c r="AB194" t="n">
-        <v>4.8855732368952e-11</v>
+        <v>8.743361917806783e-10</v>
       </c>
       <c r="AC194" t="n">
-        <v>0.0002411834563524194</v>
+        <v>0.0003242033063622949</v>
       </c>
       <c r="AD194" t="n">
-        <v>1.256098270028099e-10</v>
+        <v>8.828715592612626e-11</v>
       </c>
       <c r="AE194" t="n">
-        <v>1.694881609805732e-09</v>
+        <v>3.62623622285887e-10</v>
       </c>
       <c r="AF194" t="n">
-        <v>2.123741191595664e-05</v>
+        <v>2.38905753555217e-05</v>
       </c>
       <c r="AG194" t="n">
-        <v>2.676466321416362e-05</v>
+        <v>7.329641953332184e-06</v>
       </c>
       <c r="AH194" t="n">
-        <v>1.695966161203755e-07</v>
+        <v>1.004738400310276e-07</v>
       </c>
       <c r="AI194" t="n">
-        <v>1.035282364838213e-10</v>
+        <v>1.274999775842831e-10</v>
       </c>
       <c r="AJ194" t="n">
-        <v>0.9958222351736816</v>
+        <v>0.9956509926777982</v>
       </c>
       <c r="AK194" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Ruminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK385"/>
+  <dimension ref="A1:AL385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -737,6 +742,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -854,6 +864,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -971,6 +986,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1088,6 +1108,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1205,6 +1230,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1322,6 +1352,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1439,6 +1474,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1556,6 +1596,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1673,6 +1718,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1790,6 +1840,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1907,6 +1962,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2024,6 +2084,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2141,6 +2206,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2258,6 +2328,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2375,6 +2450,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2492,6 +2572,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2609,6 +2694,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2726,6 +2816,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2843,6 +2938,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2960,6 +3060,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3077,6 +3182,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3194,6 +3304,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3311,6 +3426,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3428,6 +3548,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3545,6 +3670,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3662,6 +3792,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3779,6 +3914,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3896,6 +4036,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -4013,6 +4158,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -4130,6 +4280,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4247,6 +4402,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4364,6 +4524,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4481,6 +4646,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4598,6 +4768,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4715,6 +4890,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -4832,6 +5012,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -4949,6 +5134,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -5066,6 +5256,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -5183,6 +5378,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5300,6 +5500,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5417,6 +5622,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5534,6 +5744,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5651,6 +5866,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5768,6 +5988,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5885,6 +6110,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -6002,6 +6232,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -6119,6 +6354,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -6236,6 +6476,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -6353,6 +6598,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -6470,6 +6720,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -6587,6 +6842,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -6704,6 +6964,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -6821,6 +7086,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -6938,6 +7208,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -7055,6 +7330,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -7172,6 +7452,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -7289,6 +7574,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -7406,6 +7696,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -7523,6 +7818,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -7640,6 +7940,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -7757,6 +8062,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -7874,6 +8184,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -7991,6 +8306,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -8108,6 +8428,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -8225,6 +8550,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -8342,6 +8672,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -8459,6 +8794,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -8576,6 +8916,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -8693,6 +9038,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -8810,6 +9160,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -8927,6 +9282,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -9044,6 +9404,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -9161,6 +9526,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -9278,6 +9648,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -9395,6 +9770,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -9512,6 +9892,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -9629,6 +10014,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -9746,6 +10136,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -9863,6 +10258,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -9980,6 +10380,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -10097,6 +10502,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -10214,6 +10624,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -10331,6 +10746,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -10448,6 +10868,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -10565,6 +10990,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -10682,6 +11112,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -10799,6 +11234,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -10916,6 +11356,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -11033,6 +11478,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -11150,6 +11600,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -11267,6 +11722,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -11384,6 +11844,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -11501,6 +11966,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -11618,6 +12088,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -11735,6 +12210,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -11852,6 +12332,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -11969,6 +12454,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -12086,6 +12576,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -12203,6 +12698,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -12320,6 +12820,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -12437,6 +12942,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL102" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -12554,6 +13064,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL103" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -12671,6 +13186,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL104" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -12788,6 +13308,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL105" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -12905,6 +13430,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL106" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -13022,6 +13552,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL107" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -13139,6 +13674,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL108" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -13256,6 +13796,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL109" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -13373,6 +13918,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL110" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -13490,6 +14040,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL111" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -13607,6 +14162,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL112" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -13724,6 +14284,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL113" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -13841,6 +14406,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL114" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -13958,6 +14528,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL115" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -14075,6 +14650,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL116" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -14192,6 +14772,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL117" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -14309,6 +14894,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL118" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -14426,6 +15016,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL119" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -14543,6 +15138,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL120" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -14660,6 +15260,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -14777,6 +15382,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -14894,6 +15504,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -15011,6 +15626,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -15128,6 +15748,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL125" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -15245,6 +15870,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -15362,6 +15992,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL127" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -15479,6 +16114,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL128" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -15596,6 +16236,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL129" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -15713,6 +16358,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL130" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -15830,6 +16480,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL131" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -15947,6 +16602,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -16064,6 +16724,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL133" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -16181,6 +16846,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL134" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -16298,6 +16968,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL135" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -16415,6 +17090,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL136" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -16532,6 +17212,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL137" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -16649,6 +17334,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL138" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -16766,6 +17456,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL139" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -16883,6 +17578,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL140" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -17000,6 +17700,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL141" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -17117,6 +17822,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -17234,6 +17944,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL143" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -17351,6 +18066,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL144" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -17468,6 +18188,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL145" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -17585,6 +18310,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL146" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -17702,6 +18432,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -17819,6 +18554,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL148" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -17936,6 +18676,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL149" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -18053,6 +18798,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL150" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -18170,6 +18920,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL151" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -18287,6 +19042,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL152" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -18404,6 +19164,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL153" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -18521,6 +19286,11 @@
           <t>g__Ruminococcus_F</t>
         </is>
       </c>
+      <c r="AL154" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_F</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -18638,6 +19408,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL155" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -18755,6 +19530,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL156" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -18872,6 +19652,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL157" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -18989,6 +19774,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL158" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -19106,6 +19896,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL159" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -19223,6 +20018,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL160" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -19340,6 +20140,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL161" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -19457,6 +20262,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL162" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -19574,6 +20384,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL163" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -19691,6 +20506,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL164" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -19808,6 +20628,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL165" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -19925,6 +20750,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL166" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -20042,6 +20872,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL167" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -20159,6 +20994,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL168" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -20276,6 +21116,11 @@
           <t>g__Ruminococcus_F</t>
         </is>
       </c>
+      <c r="AL169" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_F</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -20393,6 +21238,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL170" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -20510,6 +21360,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL171" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -20627,6 +21482,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -20744,6 +21604,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL173" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -20861,6 +21726,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL174" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -20978,6 +21848,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL175" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -21095,6 +21970,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL176" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -21212,6 +22092,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL177" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -21329,6 +22214,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -21446,6 +22336,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL179" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -21563,6 +22458,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -21680,6 +22580,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -21797,6 +22702,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL182" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -21914,6 +22824,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL183" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -22031,6 +22946,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL184" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -22148,6 +23068,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL185" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -22265,6 +23190,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL186" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -22382,6 +23312,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL187" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -22499,6 +23434,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL188" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -22616,6 +23556,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL189" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -22733,6 +23678,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL190" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -22850,6 +23800,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL191" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -22967,6 +23922,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL192" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -23084,6 +24044,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL193" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -23201,6 +24166,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL194" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -23318,6 +24288,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL195" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -23435,6 +24410,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL196" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -23552,6 +24532,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL197" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -23669,6 +24654,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL198" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -23786,6 +24776,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL199" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -23903,6 +24898,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL200" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -24020,6 +25020,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL201" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -24137,6 +25142,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL202" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -24254,6 +25264,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL203" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -24371,6 +25386,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL204" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -24488,6 +25508,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL205" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -24605,6 +25630,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL206" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -24722,6 +25752,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL207" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -24839,6 +25874,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL208" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -24956,6 +25996,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL209" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -25073,6 +26118,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL210" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -25190,6 +26240,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL211" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -25307,6 +26362,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL212" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -25424,6 +26484,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL213" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -25541,6 +26606,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL214" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -25658,6 +26728,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL215" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -25775,6 +26850,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL216" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -25892,6 +26972,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL217" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -26009,6 +27094,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL218" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -26126,6 +27216,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL219" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -26243,6 +27338,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL220" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -26360,6 +27460,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL221" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -26477,6 +27582,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL222" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -26594,6 +27704,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL223" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -26711,6 +27826,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL224" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -26828,6 +27948,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL225" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -26945,6 +28070,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL226" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -27062,6 +28192,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL227" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -27179,6 +28314,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -27296,6 +28436,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -27413,6 +28558,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -27530,6 +28680,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -27647,6 +28802,11 @@
           <t>g__Ruminococcus</t>
         </is>
       </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -27764,6 +28924,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -27881,6 +29046,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL234" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -27998,6 +29168,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL235" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -28115,6 +29290,11 @@
           <t>g__Ruminococcus</t>
         </is>
       </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -28232,6 +29412,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -28349,6 +29534,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -28466,6 +29656,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -28583,6 +29778,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -28700,6 +29900,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -28817,6 +30022,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -28934,6 +30144,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -29051,6 +30266,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -29168,6 +30388,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL245" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -29285,6 +30510,11 @@
           <t>g__Ruminococcus_F</t>
         </is>
       </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_F</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -29402,6 +30632,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -29519,6 +30754,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL248" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -29636,6 +30876,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL249" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -29753,6 +30998,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL250" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -29870,6 +31120,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL251" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -29987,6 +31242,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -30104,6 +31364,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -30221,6 +31486,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -30338,6 +31608,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -30455,6 +31730,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL256" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -30572,6 +31852,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL257" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -30689,6 +31974,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL258" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -30806,6 +32096,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL259" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -30923,6 +32218,11 @@
           <t>g__Ruminococcus</t>
         </is>
       </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -31040,6 +32340,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -31157,6 +32462,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -31274,6 +32584,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL263" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -31391,6 +32706,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -31508,6 +32828,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -31625,6 +32950,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL266" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -31742,6 +33072,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -31859,6 +33194,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -31976,6 +33316,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL269" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -32093,6 +33438,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL270" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -32210,6 +33560,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -32327,6 +33682,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -32444,6 +33804,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL273" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -32561,6 +33926,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL274" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -32678,6 +34048,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL275" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -32795,6 +34170,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL276" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -32912,6 +34292,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL277" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -33029,6 +34414,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL278" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -33146,6 +34536,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -33263,6 +34658,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -33380,6 +34780,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL281" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -33497,6 +34902,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL282" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -33614,6 +35024,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -33731,6 +35146,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL284" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -33848,6 +35268,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL285" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -33965,6 +35390,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL286" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -34082,6 +35512,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL287" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -34199,6 +35634,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL288" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -34316,6 +35756,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL289" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -34433,6 +35878,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL290" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -34550,6 +36000,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL291" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -34667,6 +36122,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL292" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -34784,6 +36244,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL293" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -34901,6 +36366,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL294" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -35018,6 +36488,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL295" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -35135,6 +36610,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL296" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -35252,6 +36732,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL297" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -35369,6 +36854,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL298" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -35486,6 +36976,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL299" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -35603,6 +37098,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL300" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -35720,6 +37220,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL301" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -35837,6 +37342,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL302" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -35954,6 +37464,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL303" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -36071,6 +37586,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL304" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -36188,6 +37708,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL305" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -36305,6 +37830,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL306" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -36422,6 +37952,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL307" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -36539,6 +38074,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL308" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -36656,6 +38196,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL309" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -36773,6 +38318,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL310" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -36890,6 +38440,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL311" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -37007,6 +38562,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL312" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -37124,6 +38684,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL313" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -37241,6 +38806,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL314" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -37358,6 +38928,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL315" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -37475,6 +39050,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL316" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -37592,6 +39172,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL317" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -37709,6 +39294,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL318" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -37826,6 +39416,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL319" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -37943,6 +39538,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL320" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -38060,6 +39660,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL321" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -38177,6 +39782,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL322" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -38294,6 +39904,11 @@
           <t>g__Faecalibacterium</t>
         </is>
       </c>
+      <c r="AL323" t="inlineStr">
+        <is>
+          <t>g__Faecalibacterium</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -38411,6 +40026,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL324" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -38528,6 +40148,11 @@
           <t>g__Ruminococcus_F</t>
         </is>
       </c>
+      <c r="AL325" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_F</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -38645,6 +40270,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL326" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -38762,6 +40392,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL327" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -38879,6 +40514,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL328" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -38996,6 +40636,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL329" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -39113,6 +40758,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL330" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -39230,6 +40880,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL331" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -39347,6 +41002,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL332" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -39464,6 +41124,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL333" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -39581,6 +41246,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL334" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -39698,6 +41368,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL335" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -39815,6 +41490,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL336" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -39932,6 +41612,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL337" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -40049,6 +41734,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL338" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -40166,6 +41856,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL339" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -40283,6 +41978,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL340" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -40400,6 +42100,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL341" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -40517,6 +42222,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL342" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -40634,6 +42344,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL343" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -40751,6 +42466,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL344" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -40868,6 +42588,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL345" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -40985,6 +42710,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL346" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -41102,6 +42832,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL347" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -41219,6 +42954,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL348" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -41336,6 +43076,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL349" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -41453,6 +43198,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL350" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -41570,6 +43320,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL351" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -41687,6 +43442,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL352" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -41804,6 +43564,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL353" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -41921,6 +43686,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL354" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -42038,6 +43808,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL355" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -42155,6 +43930,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL356" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -42272,6 +44052,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL357" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -42389,6 +44174,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL358" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -42506,6 +44296,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL359" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -42623,6 +44418,11 @@
           <t>g__CAG-115</t>
         </is>
       </c>
+      <c r="AL360" t="inlineStr">
+        <is>
+          <t>g__CAG-115</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -42740,6 +44540,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL361" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -42857,6 +44662,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL362" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -42974,6 +44784,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL363" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -43091,6 +44906,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL364" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -43208,6 +45028,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL365" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -43325,6 +45150,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL366" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -43442,6 +45272,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL367" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -43559,6 +45394,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL368" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -43676,6 +45516,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL369" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -43793,6 +45638,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL370" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -43910,6 +45760,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL371" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -44027,6 +45882,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL372" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -44144,6 +46004,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL373" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -44261,6 +46126,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL374" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -44378,6 +46248,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL375" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -44495,6 +46370,11 @@
           <t>g__Ruminiclostridium_E</t>
         </is>
       </c>
+      <c r="AL376" t="inlineStr">
+        <is>
+          <t>g__Ruminiclostridium_E</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -44612,6 +46492,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL377" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -44729,6 +46614,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL378" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -44846,6 +46736,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL379" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -44963,6 +46858,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="AL380" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -45080,6 +46980,11 @@
           <t>g__CAG-353</t>
         </is>
       </c>
+      <c r="AL381" t="inlineStr">
+        <is>
+          <t>g__CAG-353</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -45197,6 +47102,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL382" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -45314,6 +47224,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL383" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -45431,6 +47346,11 @@
           <t>g__Gemmiger</t>
         </is>
       </c>
+      <c r="AL384" t="inlineStr">
+        <is>
+          <t>g__Gemmiger</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -45544,6 +47464,11 @@
         <v>0.9854792016032158</v>
       </c>
       <c r="AK385" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
+      <c r="AL385" t="inlineStr">
         <is>
           <t>g__Ruminococcus_D</t>
         </is>

--- a/outputs-HGR-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Ruminococcaceae.xlsx
@@ -28194,7 +28194,7 @@
       </c>
       <c r="AL227" t="inlineStr">
         <is>
-          <t>g__Anaerotruncus</t>
+          <t>g__Anaerotruncus(reject)</t>
         </is>
       </c>
     </row>
@@ -50154,7 +50154,7 @@
       </c>
       <c r="AL407" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus_D(reject)</t>
         </is>
       </c>
     </row>
